--- a/Test NCKH/Test Import Excel/Test đề thi đọc/Phần câu hỏi bài đọc.xlsx
+++ b/Test NCKH/Test Import Excel/Test đề thi đọc/Phần câu hỏi bài đọc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="7872" windowHeight="1428"/>
+    <workbookView windowWidth="23040" windowHeight="9707"/>
   </bookViews>
   <sheets>
     <sheet name="Question" sheetId="1" r:id="rId1"/>
@@ -119,7 +119,7 @@
     <t>The writer believes that sustainable development is dependent on</t>
   </si>
   <si>
-    <t>Mutiple Choices</t>
+    <t>Multiple Choices</t>
   </si>
   <si>
     <t xml:space="preserve"> urban economic policy.</t>
@@ -1382,8 +1382,8 @@
   <sheetPr/>
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:N1"/>
+    <sheetView tabSelected="1" topLeftCell="E12" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
